--- a/biology/Médecine/Ahmed_Zouiten/Ahmed_Zouiten.xlsx
+++ b/biology/Médecine/Ahmed_Zouiten/Ahmed_Zouiten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ahmed Zouiten, né le 23 novembre 1915 à Tunis et mort le 23 janvier 2008 à La Marsa, est un dirigeant du football tunisien et pharmacien de formation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahmed Zouiten, né le 23 novembre 1915 à Tunis et mort le 23 janvier 2008 à La Marsa, est un dirigeant du football tunisien et pharmacien de formation.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études primaires et secondaires au lycée Carnot de Tunis entre 1922 et 1936, où il a comme camardes de classe Hassen Belkhodja et Edgard Pisani, il quitte Tunis pour passer sa terminale à Aix-en-Provence et poursuivre des études de pharmacie à Marseille. Avec d'autres étudiants tunisiens, il rend régulièrement visite à son cousin, le leader nationaliste Habib Bourguiba emprisonné au Fort Saint-Nicolas de Marseille.
 De retour au pays avant la fin de la Seconde Guerre mondiale, il s'installe à Tunis puis au Bardo de 1946 à sa retraite en 1989. À l'indépendance, après le départ massif des pharmaciens étrangers, il devient président de leur syndicat et plus tard du conseil de l'Ordre des pharmaciens et restructure la profession. Pendant toute sa période d'activité, de nombreux pharmaciens effectuent leur stage dans son officine dans une période où les jeunes étudiants tunisiens en France éprouvent des difficultés pour trouver un maître de stage en Tunisie.
@@ -545,7 +559,9 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Youssef Zouiten, juriste du début du XXe siècle, et d'Aïcha Bourguiba mais aussi le frère de Habib (artiste peintre et parmi les premiers Tunisiens à devenir médecin), Chedly (premier chirurgien-dentiste tunisien) et Ismaël (caïd de Tunis et premier directeur de la sûreté nationale à l'indépendance).
 </t>
